--- a/biology/Médecine/Classe_ATC_D07/Classe_ATC_D07.xlsx
+++ b/biology/Médecine/Classe_ATC_D07/Classe_ATC_D07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D07, dénommée « Corticoïdes, préparations dermatologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD07[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D07, dénommée « Corticoïdes, préparations dermatologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD07. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D07AA Corticoïdes d'activité faible (groupe I)
-D07AA01 Méthylprednisolone
+          <t>D07AA Corticoïdes d'activité faible (groupe I)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D07AA01 Méthylprednisolone
 D07AA02 Hydrocortisone
-D07AA03 Prednisolone
-D07AB Corticoïdes d'activité modérée (groupe II)
-D07AB01 Clobétasone (en)
+D07AA03 Prednisolone</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D07A Corticoïdes non associés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D07AB Corticoïdes d'activité modérée (groupe II)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D07AB01 Clobétasone (en)
 D07AB02 Hydrocortisone butyrate (en)
 D07AB03 Flumétasone (en)
 D07AB04 Fluocortine (en)
@@ -531,9 +582,43 @@
 D07AB11 Hydrocortisone butéprate (en)
 D07AB19 Dexaméthasone
 D07AB21 Clocortolone (en)
-D07AB30 Associations de corticoïdes
-D07AC Corticoïdes d'activité forte (groupe III)
-D07AC01 Bétaméthasone
+D07AB30 Associations de corticoïdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D07A Corticoïdes non associés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D07AC Corticoïdes d'activité forte (groupe III)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D07AC01 Bétaméthasone
 D07AC02 Fluclorolone (en)
 D07AC03 Désoximétasone
 D07AC04 Fluocinolone acétonide (en)
@@ -553,150 +638,505 @@
 D07AC18 Prednicarbate (en)
 D07AC19 Difluprednate (en)
 D07AC21 Ulobétasol (en)
-QD07AC90 Résocortol butyrate
-D07AD Corticoïdes d'activité très forte (groupe IV)
-D07AD01 Clobétasol (en)
+QD07AC90 Résocortol butyrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D07A Corticoïdes non associés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D07AD Corticoïdes d'activité très forte (groupe IV)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D07AD01 Clobétasol (en)
 D07AD02 Halcinonide (en)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_D07</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>D07B Corticoïdes, associations avec des antiseptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D07BA Corticoïdes d'activité faible et antiseptiques
-D07BA01 Prednisolone et antiseptiques
-D07BA04 Hydrocortisone et antiseptiques
-D07BB Corticoïdes d'activité modérée et antiseptiques
-D07BB01 Flumétasone et antiseptiques
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D07BA Corticoïdes d'activité faible et antiseptiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D07BA01 Prednisolone et antiseptiques
+D07BA04 Hydrocortisone et antiseptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D07B Corticoïdes, associations avec des antiseptiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D07BB Corticoïdes d'activité modérée et antiseptiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D07BB01 Flumétasone et antiseptiques
 D07BB02 Désonide et antiseptiques
 D07BB03 Triamcinolone et antiseptiques
-D07BB04 Hydrocortisone butyrate et antiseptiques
-D07BC Corticoïdes d'activité forte et antiseptiques
-D07BC01 Bétaméthasone et antiseptiques
+D07BB04 Hydrocortisone butyrate et antiseptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D07B Corticoïdes, associations avec des antiseptiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D07BC Corticoïdes d'activité forte et antiseptiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D07BC01 Bétaméthasone et antiseptiques
 D07BC02 Fluocinolone acétonide (en) et antiseptiques
 D07BC03 Fluocortolone (en) et antiseptiques
-D07BC04 Difluocortolone (en) et antiseptiques
-D07BD Corticoïdes d'activité très forte et antiseptiques
-Vide
+D07BC04 Difluocortolone (en) et antiseptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>D07B Corticoïdes, associations avec des antiseptiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>D07BD Corticoïdes d'activité très forte et antiseptiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_D07</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>D07C Corticoïdes, associations avec des antibiotiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D07CA Corticoïdes d'activité faible et antibiotiques
-D07CA01 Hydrocortisone et antibiotiques
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D07CA Corticoïdes d'activité faible et antibiotiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>D07CA01 Hydrocortisone et antibiotiques
 D07CA02 Méthylprednisolone et antibiotiques
-D07CA03 Prednisolone et antibiotiques
-D07CB Corticoïdes d'activité modérée et antibiotiques
-D07CB01 Triamcinolone et antibiotiques
+D07CA03 Prednisolone et antibiotiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>D07C Corticoïdes, associations avec des antibiotiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>D07CB Corticoïdes d'activité modérée et antibiotiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>D07CB01 Triamcinolone et antibiotiques
 D07CB02 Fluprednidène et antibiotiques
 D07CB03 Fluorométholone et antibiotiques
 D07CB04 Dexaméthasone et antibiotiques
-D07CB05 Flumétasone et antibiotiques
-D07CC Corticoïdes d'activité forte et antibiotiques
-D07CC01 Bétaméthasone et antibiotiques
+D07CB05 Flumétasone et antibiotiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D07C Corticoïdes, associations avec des antibiotiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>D07CC Corticoïdes d'activité forte et antibiotiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>D07CC01 Bétaméthasone et antibiotiques
 D07CC02 Fluocinolone acétonide (en) et antibiotiques
 D07CC03 Fludroxycortide et antibiotiques
 D07CC04 Béclométasone et antibiotiques
 D07CC05 Fluocinonide et antibiotiques
-D07CC06 Fluocortolone (en) et antibiotiques
-D07CD Corticoïdes d'activité très forte et antibiotiques
-D07CD01 Clobétasol (en) et antibiotiques</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_D07</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+D07CC06 Fluocortolone (en) et antibiotiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>D07C Corticoïdes, associations avec des antibiotiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>D07CD Corticoïdes d'activité très forte et antibiotiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>D07CD01 Clobétasol (en) et antibiotiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>D07X Corticoïdes, autres associations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D07XA Corticoïdes d'activité faible, autres associations
-D07XA01 Hydrocortisone
-D07XA02 Prednisolone
-D07XB Corticoïdes d'activité modérée, autres associations
-D07XB01 Flumétasone
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>D07XA Corticoïdes d'activité faible, autres associations</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>D07XA01 Hydrocortisone
+D07XA02 Prednisolone</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>D07X Corticoïdes, autres associations</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>D07XB Corticoïdes d'activité modérée, autres associations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>D07XB01 Flumétasone
 D07XB02 Triamcinolone
 D07XB03 Fluprednidène
 D07XB04 Fluorométholone
 D07XB05 Dexaméthasone
-D07XB30 Associations de corticoïdes
-D07XC Corticoïdes d'activité forte, autres associations
-D07XC01 Bétaméthasone
+D07XB30 Associations de corticoïdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>D07X Corticoïdes, autres associations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>D07XC Corticoïdes d'activité forte, autres associations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>D07XC01 Bétaméthasone
 D07XC02 Désoximétasone
 D07XC03 Mométasone
 D07XC04 Difluocortolone (en)
-D07XC05 Fluocortolone
-D07XD Corticoïdes d'activité très forte, autres associations
-Classe vide.</t>
+D07XC05 Fluocortolone</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>D07X Corticoïdes, autres associations</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>D07XD Corticoïdes d'activité très forte, autres associations</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
         </is>
       </c>
     </row>
